--- a/doc/map.xlsx
+++ b/doc/map.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>(0;0)</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>(-4;-6)</t>
+  </si>
+  <si>
+    <t>C1:1</t>
+  </si>
+  <si>
+    <t>(3;3)</t>
+  </si>
+  <si>
+    <t>(5;5)</t>
   </si>
 </sst>
 </file>
@@ -112,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +158,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -172,6 +187,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -455,7 +471,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,16 +550,31 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
+      <c r="N8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
